--- a/temp/pages/be-observation.xlsx
+++ b/temp/pages/be-observation.xlsx
@@ -473,7 +473,7 @@
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".
-For provinding systems, it is RECOMMENDED to express this using a code and consuming software SHALL record this.
+For providing systems, it is RECOMMENDED to express this using a code and consuming software SHALL record this.
 In general, it shall be noted SNOMED-CT is the preferred national terminology. Other coding systems remain allowed or MAY be preferred in specific flows (e.g. the use of LOINC codes to express a laboratory test.)</t>
   </si>
   <si>
